--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il13-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il13-Il2rg.xlsx
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>0.962421</v>
       </c>
       <c r="I2">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J2">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N2">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O2">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P2">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q2">
-        <v>7.816649585481001</v>
+        <v>11.33125463060067</v>
       </c>
       <c r="R2">
-        <v>70.34984626932901</v>
+        <v>101.981291675406</v>
       </c>
       <c r="S2">
-        <v>0.2614863039374022</v>
+        <v>0.3856307160719155</v>
       </c>
       <c r="T2">
-        <v>0.2614863039374022</v>
+        <v>0.3856307160719155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.962421</v>
       </c>
       <c r="I3">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J3">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q3">
         <v>0.3940017904416667</v>
@@ -635,10 +635,10 @@
         <v>3.546016113975</v>
       </c>
       <c r="S3">
-        <v>0.01318033651126892</v>
+        <v>0.01340885873055193</v>
       </c>
       <c r="T3">
-        <v>0.01318033651126892</v>
+        <v>0.01340885873055193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>0.962421</v>
       </c>
       <c r="I4">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J4">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N4">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q4">
-        <v>1.474328880216</v>
+        <v>0.8286984835116668</v>
       </c>
       <c r="R4">
-        <v>13.268959921944</v>
+        <v>7.458286351605</v>
       </c>
       <c r="S4">
-        <v>0.04931995549498947</v>
+        <v>0.02820266599086866</v>
       </c>
       <c r="T4">
-        <v>0.04931995549498947</v>
+        <v>0.02820266599086866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>0.962421</v>
       </c>
       <c r="I5">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J5">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N5">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O5">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P5">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q5">
-        <v>15.55318863708566</v>
+        <v>14.92744121662733</v>
       </c>
       <c r="R5">
-        <v>139.978697733771</v>
+        <v>134.346970949646</v>
       </c>
       <c r="S5">
-        <v>0.5202927119448801</v>
+        <v>0.5080178703198266</v>
       </c>
       <c r="T5">
-        <v>0.5202927119448802</v>
+        <v>0.5080178703198266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H6">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I6">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J6">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N6">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O6">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P6">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q6">
-        <v>1.441719667971</v>
+        <v>0.784363790368889</v>
       </c>
       <c r="R6">
-        <v>12.975477011739</v>
+        <v>7.059274113320001</v>
       </c>
       <c r="S6">
-        <v>0.04822909651621504</v>
+        <v>0.02669384635695918</v>
       </c>
       <c r="T6">
-        <v>0.04822909651621506</v>
+        <v>0.02669384635695918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H7">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I7">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J7">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.684475</v>
       </c>
       <c r="O7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q7">
-        <v>0.07267053796944443</v>
+        <v>0.02727330272222222</v>
       </c>
       <c r="R7">
-        <v>0.654034841725</v>
+        <v>0.2454597245</v>
       </c>
       <c r="S7">
-        <v>0.002431009625155579</v>
+        <v>0.0009281781763171931</v>
       </c>
       <c r="T7">
-        <v>0.002431009625155579</v>
+        <v>0.0009281781763171931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H8">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I8">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J8">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N8">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q8">
-        <v>0.271928390856</v>
+        <v>0.05736355812222223</v>
       </c>
       <c r="R8">
-        <v>2.447355517704</v>
+        <v>0.5162720231</v>
       </c>
       <c r="S8">
-        <v>0.009096678709079577</v>
+        <v>0.001952224243144809</v>
       </c>
       <c r="T8">
-        <v>0.009096678709079577</v>
+        <v>0.001952224243144809</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H9">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I9">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J9">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N9">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O9">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P9">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q9">
-        <v>2.868663576706777</v>
+        <v>1.033296378457778</v>
       </c>
       <c r="R9">
-        <v>25.817972190361</v>
+        <v>9.299667406119999</v>
       </c>
       <c r="S9">
-        <v>0.09596390726100906</v>
+        <v>0.03516564011041618</v>
       </c>
       <c r="T9">
-        <v>0.09596390726100909</v>
+        <v>0.03516564011041617</v>
       </c>
     </row>
   </sheetData>
